--- a/doc/tnp.xlsx
+++ b/doc/tnp.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Nº</t>
   </si>
   <si>
-    <t xml:space="preserve">/2021</t>
+    <t xml:space="preserve">/2022</t>
   </si>
   <si>
     <t xml:space="preserve">INFRATOR:</t>
@@ -706,9 +706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -722,7 +722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="33480" y="45000"/>
-          <a:ext cx="1645920" cy="312480"/>
+          <a:ext cx="1645560" cy="312120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,10 +745,10 @@
   <dimension ref="A1:AF53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN23" activeCellId="0" sqref="AN23"/>
+      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="1" style="0" width="2.86"/>
   </cols>

--- a/doc/tnp.xlsx
+++ b/doc/tnp.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">OUTROS</t>
   </si>
   <si>
-    <t xml:space="preserve">OBSERVAÇÕES:</t>
+    <t xml:space="preserve">OBSERVAÇÃO: Informo que no local e data já especificado neste documento, foi constatado: </t>
   </si>
   <si>
     <t xml:space="preserve">INFRAÇÃO CONSTATADA</t>
@@ -744,11 +744,11 @@
   </sheetPr>
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="1" style="0" width="2.86"/>
   </cols>
@@ -791,7 +791,7 @@
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -2545,7 +2545,7 @@
       <c r="AE51" s="53"/>
       <c r="AF51" s="22"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>

--- a/doc/tnp.xlsx
+++ b/doc/tnp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t xml:space="preserve">TERMO DE NOTIFICAÇÃO DE PENALIDADE</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">1ª Via (branca): CEAGESP        2ª Via (azul): Permissionário        3ª Via (verde): Talão                                                                     OM-T-088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTÓRICO DE REINCIDÊNCIA</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -430,6 +433,27 @@
       <right/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -458,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,6 +705,18 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -706,9 +742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -722,7 +758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="33480" y="45000"/>
-          <a:ext cx="1645560" cy="312120"/>
+          <a:ext cx="1644840" cy="311400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,13 +778,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AG59" activeCellId="0" sqref="AG59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="1" style="0" width="2.86"/>
   </cols>
@@ -2614,6 +2650,21 @@
       <c r="AD53" s="55"/>
       <c r="AE53" s="55"/>
       <c r="AF53" s="55"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/doc/tnp.xlsx
+++ b/doc/tnp.xlsx
@@ -742,9 +742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>154440</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -758,7 +758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="33480" y="45000"/>
-          <a:ext cx="1644840" cy="311400"/>
+          <a:ext cx="1644480" cy="311040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,7 +781,7 @@
   <dimension ref="A1:AF61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG59" activeCellId="0" sqref="AG59"/>
+      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2651,21 +2651,23 @@
       <c r="AE53" s="55"/>
       <c r="AF53" s="55"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="56" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="58"/>
-    </row>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="58"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="H1:Y2"/>
